--- a/shop.xlsx
+++ b/shop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>美源染发膏棕色(没买过，随便)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌益香滑巧克力粉40g*15包</t>
+  </si>
+  <si>
+    <t>昌益香滑巧克力粉40g*15包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +303,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42599.47500416667" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="19">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42600.955994097225" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -308,7 +323,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="商品" numFmtId="0">
-      <sharedItems containsBlank="1" count="17">
+      <sharedItems containsBlank="1" count="18">
         <s v="黑人牙膏（250+250+100克）买二送一的"/>
         <s v="肌研极润保湿乳液90ml 透明质酸"/>
         <s v="多芬滋养柔肤沐浴乳1000ml溫和去角質配方沐浴露"/>
@@ -324,6 +339,7 @@
         <s v="方便面（或2套）方便面出钱一丁还是"/>
         <s v="炸酱面,3元左右一包的就好了，好像是韩国的"/>
         <s v="依云 (Evian)天然矿泉水喷雾 300ml"/>
+        <s v="昌益香滑巧克力粉40g*15包"/>
         <m/>
         <s v="美源染发膏棕色" u="1"/>
       </sharedItems>
@@ -333,7 +349,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="19">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
     <s v="Dan"/>
     <n v="1"/>
@@ -443,17 +459,23 @@
     <x v="14"/>
   </r>
   <r>
+    <s v="米"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
     <m/>
     <m/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="16"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C21" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <location ref="A3:C22" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -467,7 +489,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="17">
+      <items count="18">
         <item x="7"/>
         <item x="2"/>
         <item x="10"/>
@@ -476,15 +498,16 @@
         <item x="1"/>
         <item x="5"/>
         <item x="11"/>
-        <item m="1" x="16"/>
+        <item m="1" x="17"/>
         <item x="9"/>
         <item x="6"/>
         <item x="3"/>
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item x="16"/>
+        <item x="8"/>
         <item x="15"/>
-        <item x="8"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -492,7 +515,7 @@
     <field x="3"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="18">
     <i>
       <x/>
       <x v="1"/>
@@ -556,6 +579,10 @@
     <i>
       <x v="16"/>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -885,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C21"/>
+  <dimension ref="A3:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1088,12 +1115,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2">
-        <v>24</v>
+      <c r="C22" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1376,6 +1414,20 @@
       </c>
       <c r="D19" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <t>单位</t>
   </si>
   <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瓶</t>
   </si>
   <si>
@@ -184,22 +180,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昌益香滑巧克力粉40g*15包</t>
   </si>
   <si>
     <t>昌益香滑巧克力粉40g*15包</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗发水和沐浴露¥7、蚝豉、螺片、肌研乳液、染发剂、玉兰油保湿霜和方便面是¥5、牙膏¥3、姜母茶¥6、金盏花水¥15、洗面奶¥2、依云喷雾¥7。</t>
+  </si>
+  <si>
+    <t>mei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购货方</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Dan 汇总</t>
+  </si>
+  <si>
+    <t>limy</t>
+  </si>
+  <si>
+    <t>limy 汇总</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>yi 汇总</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>米 汇总</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>同 汇总</t>
+  </si>
+  <si>
+    <t>(空白) 汇总</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +267,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -305,11 +361,18 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42600.955994097225" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="购货方" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="6">
+        <s v="Dan"/>
+        <s v="limy"/>
+        <s v="yi"/>
+        <s v="同"/>
+        <s v="米"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="数目" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
@@ -351,121 +414,121 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
-    <s v="Dan"/>
+    <x v="0"/>
     <n v="1"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Dan"/>
+    <x v="0"/>
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Dan"/>
+    <x v="0"/>
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="limy"/>
+    <x v="1"/>
     <n v="1"/>
     <x v="2"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="limy"/>
+    <x v="1"/>
     <n v="1"/>
     <x v="3"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="2"/>
     <x v="2"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="3"/>
     <x v="2"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="3"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="2"/>
     <x v="2"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="1"/>
     <x v="2"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="1"/>
     <x v="2"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="1"/>
     <x v="3"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="yi"/>
+    <x v="2"/>
     <n v="1"/>
     <x v="3"/>
     <x v="11"/>
   </r>
   <r>
-    <s v="同"/>
+    <x v="3"/>
     <n v="1"/>
     <x v="3"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="米"/>
+    <x v="4"/>
     <n v="1"/>
     <x v="0"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="米"/>
+    <x v="4"/>
     <n v="1"/>
     <x v="0"/>
     <x v="13"/>
   </r>
   <r>
-    <s v="米"/>
+    <x v="4"/>
     <n v="1"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="同"/>
+    <x v="3"/>
     <n v="1"/>
     <x v="2"/>
     <x v="14"/>
   </r>
   <r>
-    <s v="米"/>
+    <x v="4"/>
     <n v="1"/>
     <x v="3"/>
     <x v="15"/>
   </r>
   <r>
-    <m/>
+    <x v="5"/>
     <m/>
     <x v="1"/>
     <x v="16"/>
@@ -474,10 +537,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C22" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:D31" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="4">
-    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="5">
@@ -511,78 +584,115 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
+    <field x="0"/>
     <field x="3"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="27">
     <i>
       <x/>
       <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x/>
     </i>
     <i>
       <x v="1"/>
-      <x v="3"/>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
       <x/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
+      <x v="3"/>
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
+      <x v="4"/>
       <x/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="15"/>
       <x v="3"/>
     </i>
-    <i>
-      <x v="16"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x/>
+    <i t="default">
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -912,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C22"/>
+  <dimension ref="A3:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -921,216 +1031,316 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" t="s">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" t="s">
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="29" spans="1:4" ht="14.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
         <v>25</v>
       </c>
     </row>
@@ -1143,20 +1353,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="46.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1164,275 +1376,425 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>B2*(C2*E$1+D2)</f>
+        <v>66.09</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="0">B3*(C3*E$1+D3)</f>
+        <v>73.875</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>60.71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>24.625</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>115.125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>30.355</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>340</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>309.10000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>57.9</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>41.33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>50.844999999999999</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>72.47</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>46.519999999999996</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>57.9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>15.379999999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>24.625</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>38.14</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>50</v>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="F21" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D15">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:E20">
+    <sortCondition descending="1" ref="B2:B20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,18 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>瓶</t>
-  </si>
-  <si>
-    <t>套</t>
-  </si>
-  <si>
-    <t>包</t>
-  </si>
-  <si>
     <t>同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,9 +127,6 @@
     <t>(空白)</t>
   </si>
   <si>
-    <t>求和项:数目</t>
-  </si>
-  <si>
     <t>汇总</t>
   </si>
   <si>
@@ -236,13 +221,32 @@
   </si>
   <si>
     <t>(空白) 汇总</t>
+  </si>
+  <si>
+    <t>邮费</t>
+  </si>
+  <si>
+    <t>邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mei</t>
+  </si>
+  <si>
+    <t>mei 汇总</t>
+  </si>
+  <si>
+    <t>邮费 汇总</t>
+  </si>
+  <si>
+    <t>求和项:0.865</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,15 +257,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -297,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,10 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -320,7 +312,29 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <sz val="12"/>
@@ -340,68 +354,59 @@
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42600.955994097225" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42625.827007175925" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="21">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="6">
     <cacheField name="购货方" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="8">
+        <s v="yi"/>
         <s v="Dan"/>
         <s v="limy"/>
-        <s v="yi"/>
         <s v="同"/>
         <s v="米"/>
+        <s v="mei"/>
+        <s v="邮费"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="数目" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
     </cacheField>
-    <cacheField name="单位" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="套"/>
-        <m/>
-        <s v="瓶"/>
-        <s v="包"/>
-      </sharedItems>
+    <cacheField name="单价" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="340"/>
+    </cacheField>
+    <cacheField name="带工费" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
+    </cacheField>
+    <cacheField name="0.865" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="309.10000000000002"/>
     </cacheField>
     <cacheField name="商品" numFmtId="0">
-      <sharedItems containsBlank="1" count="18">
+      <sharedItems containsBlank="1" count="19">
+        <s v="玉兰油美白洗面奶"/>
         <s v="黑人牙膏（250+250+100克）买二送一的"/>
+        <s v="力士沐浴露"/>
+        <s v="多芬洗发水"/>
         <s v="肌研极润保湿乳液90ml 透明质酸"/>
         <s v="多芬滋养柔肤沐浴乳1000ml溫和去角質配方沐浴露"/>
         <s v="小的金盏水應該是科颜氏"/>
         <s v="黑糖姜母茶"/>
-        <s v="力士沐浴露"/>
-        <s v="玉兰油美白洗面奶"/>
-        <s v="多芬洗发水"/>
         <s v="美源染发膏棕色(没买过，随便)"/>
         <s v="玉兰油保湿润肤霜"/>
         <s v="蚝豉"/>
         <s v="螺片"/>
         <s v="方便面（或2套）方便面出钱一丁还是"/>
+        <s v="依云 (Evian)天然矿泉水喷雾 300ml"/>
+        <s v="洗发水和沐浴露¥7、蚝豉、螺片、肌研乳液、染发剂、玉兰油保湿霜和方便面是¥5、牙膏¥3、姜母茶¥6、金盏花水¥15、洗面奶¥2、依云喷雾¥7。"/>
         <s v="炸酱面,3元左右一包的就好了，好像是韩国的"/>
-        <s v="依云 (Evian)天然矿泉水喷雾 300ml"/>
         <s v="昌益香滑巧克力粉40g*15包"/>
         <m/>
         <s v="美源染发膏棕色" u="1"/>
@@ -412,196 +417,237 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="22"/>
+    <n v="3"/>
+    <n v="66.09"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="25"/>
+    <n v="3"/>
+    <n v="73.875"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="7"/>
+    <n v="57.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="27"/>
+    <n v="7"/>
+    <n v="60.71"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="25"/>
+    <n v="3"/>
+    <n v="24.625"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="125"/>
+    <n v="7"/>
+    <n v="115.125"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="27"/>
+    <n v="7"/>
+    <n v="30.355"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="340"/>
+    <n v="15"/>
+    <n v="309.10000000000002"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="6"/>
+    <n v="57.9"/>
+    <x v="7"/>
+  </r>
   <r>
     <x v="0"/>
     <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="42"/>
+    <n v="5"/>
+    <n v="41.33"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="0"/>
     <n v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="53"/>
+    <n v="5"/>
+    <n v="50.844999999999999"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
     <n v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <n v="78"/>
+    <n v="5"/>
+    <n v="72.47"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
     <n v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <x v="2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <x v="3"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <x v="3"/>
+    <n v="48"/>
+    <n v="5"/>
+    <n v="46.519999999999996"/>
     <x v="11"/>
   </r>
   <r>
     <x v="3"/>
     <n v="1"/>
-    <x v="3"/>
-    <x v="4"/>
+    <n v="60"/>
+    <n v="6"/>
+    <n v="57.9"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="4"/>
     <n v="1"/>
-    <x v="0"/>
+    <n v="18"/>
+    <n v="5"/>
+    <n v="20.57"/>
     <x v="12"/>
   </r>
   <r>
     <x v="4"/>
     <n v="1"/>
-    <x v="0"/>
+    <n v="25"/>
+    <n v="3"/>
+    <n v="24.625"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="7"/>
+    <n v="38.14"/>
     <x v="13"/>
   </r>
   <r>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <x v="14"/>
+  </r>
+  <r>
     <x v="4"/>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-    <x v="2"/>
-    <x v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="1"/>
-    <x v="3"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="7"/>
     <m/>
-    <x v="1"/>
-    <x v="16"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="17"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:D31" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="7">
-        <item x="0"/>
+      <items count="9">
         <item x="1"/>
         <item x="2"/>
+        <item x="0"/>
         <item x="4"/>
         <item x="3"/>
+        <item x="7"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="5">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="19">
         <item x="3"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
         <item x="2"/>
+        <item x="11"/>
+        <item m="1" x="18"/>
+        <item x="9"/>
         <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="18">
-        <item x="7"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item m="1" x="17"/>
-        <item x="9"/>
         <item x="6"/>
-        <item x="3"/>
         <item x="12"/>
+        <item x="15"/>
         <item x="13"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="16"/>
         <item x="14"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="15"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="2">
     <field x="0"/>
-    <field x="3"/>
-    <field x="2"/>
+    <field x="5"/>
   </rowFields>
-  <rowItems count="27">
+  <rowItems count="30">
     <i>
       <x/>
       <x v="1"/>
-      <x v="3"/>
     </i>
     <i r="1">
       <x v="3"/>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="5"/>
-      <x v="3"/>
     </i>
     <i t="default">
       <x/>
@@ -609,11 +655,9 @@
     <i>
       <x v="1"/>
       <x v="4"/>
-      <x/>
     </i>
     <i r="1">
       <x v="11"/>
-      <x v="1"/>
     </i>
     <i t="default">
       <x v="1"/>
@@ -621,35 +665,27 @@
     <i>
       <x v="2"/>
       <x/>
-      <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
-      <x/>
     </i>
     <i r="1">
       <x v="3"/>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="6"/>
-      <x v="1"/>
     </i>
     <i r="1">
       <x v="7"/>
-      <x/>
     </i>
     <i r="1">
       <x v="9"/>
-      <x v="1"/>
     </i>
     <i r="1">
       <x v="10"/>
-      <x v="1"/>
     </i>
     <i r="1">
       <x v="16"/>
-      <x v="1"/>
     </i>
     <i t="default">
       <x v="2"/>
@@ -657,19 +693,15 @@
     <i>
       <x v="3"/>
       <x v="3"/>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="12"/>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="13"/>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="17"/>
-      <x/>
     </i>
     <i t="default">
       <x v="3"/>
@@ -677,11 +709,6 @@
     <i>
       <x v="4"/>
       <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-      <x v="1"/>
     </i>
     <i t="default">
       <x v="4"/>
@@ -689,10 +716,23 @@
     <i>
       <x v="5"/>
       <x v="15"/>
-      <x v="3"/>
     </i>
     <i t="default">
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="14"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="18"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -702,34 +742,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="求和项:数目" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:0.865" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="3" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="3" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="3" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
+  <formats count="1">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1022,326 +1038,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D31"/>
+  <dimension ref="A3:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30.355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
+      <c r="C6" s="4">
+        <v>24.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4">
+        <v>115.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4">
+        <v>170.10500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
+      <c r="C9" s="4">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4">
+        <v>309.10000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
+      <c r="C12" s="4">
+        <v>60.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
+      <c r="C13" s="4">
+        <v>72.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>73.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
+      <c r="C15" s="4">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
+      <c r="C16" s="4">
+        <v>46.519999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
+      <c r="C17" s="4">
+        <v>50.844999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
+      <c r="C18" s="4">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25">
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4">
+        <v>41.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4">
+        <v>469.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45.195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25">
-      <c r="A21" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="4">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.25">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.25">
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2">
-        <v>25</v>
+      <c r="C33" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1167.4300000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1340,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E19" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1376,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1">
         <v>0.86499999999999999</v>
@@ -1423,11 +1407,11 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E20" si="0">B3*(C3*E$1+D3)</f>
+        <f>B3*(C3*E$1+D3)</f>
         <v>73.875</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1444,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>B4*(C4*E$1+D4)</f>
         <v>57.25</v>
       </c>
       <c r="F4" t="s">
@@ -1465,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>B5*(C5*E$1+D5)</f>
         <v>60.71</v>
       </c>
       <c r="F5" t="s">
@@ -1474,7 +1458,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1486,16 +1470,16 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>B6*(C6*E$1+D6)</f>
         <v>24.625</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1507,16 +1491,16 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>B7*(C7*E$1+D7)</f>
         <v>115.125</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1528,11 +1512,11 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>B8*(C8*E$1+D8)</f>
         <v>30.355</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1549,11 +1533,11 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>B9*(C9*E$1+D9)</f>
         <v>309.10000000000002</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1570,11 +1554,11 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>B10*(C10*E$1+D10)</f>
         <v>57.9</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1591,11 +1575,11 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>B11*(C11*E$1+D11)</f>
         <v>41.33</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1612,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>B12*(C12*E$1+D12)</f>
         <v>50.844999999999999</v>
       </c>
       <c r="F12" t="s">
@@ -1633,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>B13*(C13*E$1+D13)</f>
         <v>72.47</v>
       </c>
       <c r="F13" t="s">
@@ -1654,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>B14*(C14*E$1+D14)</f>
         <v>46.519999999999996</v>
       </c>
       <c r="F14" t="s">
@@ -1663,7 +1647,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1675,37 +1659,37 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>B15*(C15*E$1+D15)</f>
         <v>57.9</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>15.379999999999999</v>
+        <f>B16*(C16*E$1+D16)</f>
+        <v>20.57</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1717,16 +1701,16 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>B17*(C17*E$1+D17)</f>
         <v>24.625</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1738,37 +1722,36 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>B18*(C18*E$1+D18)</f>
         <v>38.14</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1780,21 +1763,37 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>B20*(C20*E$1+D20)</f>
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15">
-      <c r="F21" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f>B21*(C21*E$1+D21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E20">
-    <sortCondition descending="1" ref="B2:B20"/>
+  <sortState ref="A2:F21">
+    <sortCondition descending="1" ref="B2:B21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870"/>
   </bookViews>
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,21 +53,6 @@
     <t>多芬洗发水</t>
   </si>
   <si>
-    <t>，螺片（1包</t>
-  </si>
-  <si>
-    <t>，蚝豉（1包</t>
-  </si>
-  <si>
-    <t>美源染发膏棕色</t>
-  </si>
-  <si>
-    <t>1瓶</t>
-  </si>
-  <si>
-    <t>1包</t>
-  </si>
-  <si>
     <t>玉兰油保湿润肤霜</t>
   </si>
   <si>
@@ -240,13 +225,24 @@
   </si>
   <si>
     <t>求和项:0.865</t>
+  </si>
+  <si>
+    <t>数目</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +264,15 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,49 +313,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -360,7 +330,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42625.827007175925" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42626.515471064813" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="22">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -378,7 +348,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="数目" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="5">
+        <n v="3"/>
+        <n v="2"/>
+        <n v="1"/>
+        <n v="0"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="单价" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="340"/>
@@ -405,11 +381,11 @@
         <s v="螺片"/>
         <s v="方便面（或2套）方便面出钱一丁还是"/>
         <s v="依云 (Evian)天然矿泉水喷雾 300ml"/>
-        <s v="洗发水和沐浴露¥7、蚝豉、螺片、肌研乳液、染发剂、玉兰油保湿霜和方便面是¥5、牙膏¥3、姜母茶¥6、金盏花水¥15、洗面奶¥2、依云喷雾¥7。"/>
+        <m/>
         <s v="炸酱面,3元左右一包的就好了，好像是韩国的"/>
         <s v="昌益香滑巧克力粉40g*15包"/>
-        <m/>
         <s v="美源染发膏棕色" u="1"/>
+        <s v="洗发水和沐浴露¥7、蚝豉、螺片、肌研乳液、染发剂、玉兰油保湿霜和方便面是¥5、牙膏¥3、姜母茶¥6、金盏花水¥15、洗面奶¥2、依云喷雾¥7。" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -417,10 +393,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="22">
   <r>
     <x v="0"/>
-    <n v="3"/>
+    <x v="0"/>
     <n v="22"/>
     <n v="3"/>
     <n v="66.09"/>
@@ -428,7 +404,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="3"/>
+    <x v="0"/>
     <n v="25"/>
     <n v="3"/>
     <n v="73.875"/>
@@ -436,7 +412,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="2"/>
+    <x v="1"/>
     <n v="25"/>
     <n v="7"/>
     <n v="57.25"/>
@@ -444,7 +420,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="2"/>
+    <x v="1"/>
     <n v="27"/>
     <n v="7"/>
     <n v="60.71"/>
@@ -452,7 +428,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="25"/>
     <n v="3"/>
     <n v="24.625"/>
@@ -460,7 +436,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="125"/>
     <n v="7"/>
     <n v="115.125"/>
@@ -468,7 +444,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="27"/>
     <n v="7"/>
     <n v="30.355"/>
@@ -476,7 +452,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="340"/>
     <n v="15"/>
     <n v="309.10000000000002"/>
@@ -484,7 +460,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="60"/>
     <n v="6"/>
     <n v="57.9"/>
@@ -492,7 +468,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="42"/>
     <n v="5"/>
     <n v="41.33"/>
@@ -500,7 +476,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="53"/>
     <n v="5"/>
     <n v="50.844999999999999"/>
@@ -508,7 +484,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="78"/>
     <n v="5"/>
     <n v="72.47"/>
@@ -516,7 +492,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="48"/>
     <n v="5"/>
     <n v="46.519999999999996"/>
@@ -524,7 +500,7 @@
   </r>
   <r>
     <x v="3"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="60"/>
     <n v="6"/>
     <n v="57.9"/>
@@ -532,7 +508,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="18"/>
     <n v="5"/>
     <n v="20.57"/>
@@ -540,7 +516,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="25"/>
     <n v="3"/>
     <n v="24.625"/>
@@ -548,7 +524,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="36"/>
     <n v="7"/>
     <n v="38.14"/>
@@ -556,7 +532,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="1"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="20"/>
@@ -564,7 +540,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="5"/>
     <n v="0"/>
@@ -572,7 +548,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="5"/>
     <n v="0"/>
@@ -580,18 +556,26 @@
   </r>
   <r>
     <x v="7"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
     <m/>
-    <x v="17"/>
+    <m/>
+    <m/>
+    <x v="14"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:D34" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="9">
@@ -606,7 +590,16 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -620,34 +613,38 @@
         <item x="4"/>
         <item x="2"/>
         <item x="11"/>
-        <item m="1" x="18"/>
+        <item m="1" x="17"/>
         <item x="9"/>
         <item x="0"/>
         <item x="6"/>
         <item x="12"/>
         <item x="15"/>
         <item x="13"/>
-        <item x="17"/>
+        <item x="14"/>
         <item x="8"/>
         <item x="16"/>
-        <item x="14"/>
+        <item m="1" x="18"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="0"/>
     <field x="5"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="30">
     <i>
       <x/>
       <x v="1"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="3"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="5"/>
+      <x v="1"/>
     </i>
     <i t="default">
       <x/>
@@ -655,9 +652,11 @@
     <i>
       <x v="1"/>
       <x v="4"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="11"/>
+      <x v="1"/>
     </i>
     <i t="default">
       <x v="1"/>
@@ -665,27 +664,35 @@
     <i>
       <x v="2"/>
       <x/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="2"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="3"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="6"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="7"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="9"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="10"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="16"/>
+      <x v="1"/>
     </i>
     <i t="default">
       <x v="2"/>
@@ -693,15 +700,19 @@
     <i>
       <x v="3"/>
       <x v="3"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="12"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="13"/>
+      <x/>
     </i>
     <i r="1">
       <x v="17"/>
+      <x/>
     </i>
     <i t="default">
       <x v="3"/>
@@ -709,6 +720,7 @@
     <i>
       <x v="4"/>
       <x v="4"/>
+      <x v="1"/>
     </i>
     <i t="default">
       <x v="4"/>
@@ -716,6 +728,7 @@
     <i>
       <x v="5"/>
       <x v="15"/>
+      <x v="4"/>
     </i>
     <i t="default">
       <x v="5"/>
@@ -723,13 +736,15 @@
     <i>
       <x v="6"/>
       <x v="14"/>
+      <x v="1"/>
     </i>
     <i t="default">
       <x v="6"/>
     </i>
     <i>
       <x v="7"/>
-      <x v="18"/>
+      <x v="15"/>
+      <x v="1"/>
     </i>
     <i t="default">
       <x v="7"/>
@@ -745,7 +760,7 @@
     <dataField name="求和项:0.865" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1038,294 +1053,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C34"/>
+  <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="A28:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30.355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>24.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>115.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4">
+        <v>170.10500000000002</v>
+      </c>
+      <c r="F8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>309.10000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4">
+        <v>367</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30.355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4">
-        <v>24.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>115.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4">
-        <v>170.10500000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4">
-        <v>309.10000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" t="s">
-        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
         <v>60.71</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
+      <c r="E12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
         <v>72.47</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25">
+      <c r="E13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
         <v>73.875</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25">
+      <c r="E14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
         <v>57.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25">
+      <c r="E15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
         <v>46.519999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25">
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <v>50.844999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25">
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
         <v>66.09</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25">
+      <c r="E18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
         <v>41.33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4">
+        <v>469.09</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>24.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45.195</v>
+      </c>
+      <c r="F25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>57.9</v>
+      </c>
+      <c r="E26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="4">
-        <v>469.09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25">
-      <c r="A21" t="s">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>38.14</v>
+      </c>
+      <c r="E30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="4">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4">
-        <v>24.625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4">
-        <v>20.57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25">
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25">
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="4">
-        <v>45.195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="4">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f>SUM(F5:F32)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="4">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="4">
-        <v>38.14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="4">
-        <v>38.14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>1167.4300000000003</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E5:E33)</f>
+        <v>1010</v>
+      </c>
+      <c r="F34">
+        <f>GETPIVOTDATA("0.865",$A$3)-E34</f>
+        <v>157.43000000000029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="F35">
+        <f>F33-F34</f>
+        <v>57.569999999999709</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E19" sqref="E2:E19"/>
@@ -1360,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1">
         <v>0.86499999999999999</v>
@@ -1374,7 +1515,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1386,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>B2*(C2*E$1+D2)</f>
+        <f t="shared" ref="E2:E18" si="0">B2*(C2*E$1+D2)</f>
         <v>66.09</v>
       </c>
       <c r="F2" t="s">
@@ -1395,7 +1536,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1407,16 +1548,16 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>B3*(C3*E$1+D3)</f>
+        <f t="shared" si="0"/>
         <v>73.875</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1428,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <f>B4*(C4*E$1+D4)</f>
+        <f t="shared" si="0"/>
         <v>57.25</v>
       </c>
       <c r="F4" t="s">
@@ -1437,7 +1578,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1449,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f>B5*(C5*E$1+D5)</f>
+        <f t="shared" si="0"/>
         <v>60.71</v>
       </c>
       <c r="F5" t="s">
@@ -1458,7 +1599,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1470,16 +1611,16 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>B6*(C6*E$1+D6)</f>
+        <f t="shared" si="0"/>
         <v>24.625</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1491,16 +1632,16 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <f>B7*(C7*E$1+D7)</f>
+        <f t="shared" si="0"/>
         <v>115.125</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1512,11 +1653,11 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <f>B8*(C8*E$1+D8)</f>
+        <f t="shared" si="0"/>
         <v>30.355</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1533,11 +1674,11 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <f>B9*(C9*E$1+D9)</f>
+        <f t="shared" si="0"/>
         <v>309.10000000000002</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1554,16 +1695,16 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <f>B10*(C10*E$1+D10)</f>
+        <f t="shared" si="0"/>
         <v>57.9</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1575,16 +1716,16 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f>B11*(C11*E$1+D11)</f>
+        <f t="shared" si="0"/>
         <v>41.33</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1596,16 +1737,16 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f>B12*(C12*E$1+D12)</f>
+        <f t="shared" si="0"/>
         <v>50.844999999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1617,16 +1758,16 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>B13*(C13*E$1+D13)</f>
+        <f t="shared" si="0"/>
         <v>72.47</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1638,16 +1779,16 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <f>B14*(C14*E$1+D14)</f>
+        <f t="shared" si="0"/>
         <v>46.519999999999996</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1659,16 +1800,16 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <f>B15*(C15*E$1+D15)</f>
+        <f t="shared" si="0"/>
         <v>57.9</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1680,16 +1821,16 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <f>B16*(C16*E$1+D16)</f>
+        <f t="shared" si="0"/>
         <v>20.57</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1701,16 +1842,16 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <f>B17*(C17*E$1+D17)</f>
+        <f t="shared" si="0"/>
         <v>24.625</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1722,16 +1863,16 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <f>B18*(C18*E$1+D18)</f>
+        <f t="shared" si="0"/>
         <v>38.14</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1745,13 +1886,10 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1767,12 +1905,12 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1788,7 +1926,12 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="G22" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1803,64 +1946,130 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C9"/>
+      <selection activeCell="E16" sqref="D16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>11</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4">
+        <v>57.9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>60.71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>72.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>73.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>46.519999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>50.844999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>41.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>30.355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>24.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>115.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4">
+        <v>30.355</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
+        <v>24.625</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E18" s="4">
+        <v>115.125</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>309.10000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无比膏</t>
+  </si>
+  <si>
+    <t>图已发，18g，红色的盖子</t>
+  </si>
+  <si>
+    <t>图已发，18g，红色的盖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,34 +296,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -318,7 +309,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42654.660758101854" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42654.680930787035" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -339,8 +330,9 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
     </cacheField>
     <cacheField name="商品" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="9">
         <s v="澳洲红糖"/>
+        <s v="无比膏"/>
         <s v="全脂德运奶粉"/>
         <s v="方便面"/>
         <s v="牙膏套装"/>
@@ -351,8 +343,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="9">
         <s v="新西兰进口Red Seal/红印黑糖500g "/>
+        <s v="图已发，18g，红色的盖子"/>
         <s v="找个贵点的地方买，90左右港币"/>
         <s v="（袋装）出前一丁等，不要四洲的"/>
         <s v="不要黑人牙膏；要狮王或其他牌子"/>
@@ -367,7 +360,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
   <r>
     <s v="Dan"/>
     <n v="2"/>
@@ -378,16 +371,16 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="同"/>
-    <n v="2"/>
-    <m/>
-    <m/>
-    <n v="0"/>
+    <s v="Dan"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="米"/>
+    <s v="同"/>
     <n v="2"/>
     <m/>
     <m/>
@@ -397,7 +390,7 @@
   </r>
   <r>
     <s v="米"/>
-    <n v="1"/>
+    <n v="2"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -418,9 +411,18 @@
     <n v="1"/>
     <m/>
     <m/>
-    <m/>
+    <n v="0"/>
     <x v="5"/>
     <x v="5"/>
+  </r>
+  <r>
+    <s v="米"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="邮费"/>
@@ -428,8 +430,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="20"/>
-    <x v="6"/>
-    <x v="6"/>
+    <x v="7"/>
+    <x v="7"/>
   </r>
   <r>
     <m/>
@@ -437,15 +439,15 @@
     <m/>
     <m/>
     <m/>
+    <x v="8"/>
     <x v="7"/>
-    <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C13" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C14" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -453,27 +455,29 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
+      <items count="9">
+        <item x="8"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
         <item x="7"/>
+        <item x="6"/>
         <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="2"/>
+      <items count="9">
         <item x="3"/>
         <item x="4"/>
-        <item m="1" x="7"/>
+        <item x="5"/>
+        <item m="1" x="8"/>
         <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="6"/>
         <item x="1"/>
-        <item x="6"/>
-        <item x="5"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -481,7 +485,7 @@
     <field x="5"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="10">
     <i>
       <x/>
       <x v="6"/>
@@ -514,6 +518,10 @@
       <x v="7"/>
       <x v="7"/>
     </i>
+    <i>
+      <x v="8"/>
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -525,7 +533,7 @@
     <dataField name="求和项:数目" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -818,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -948,13 +956,30 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <v>10</v>
+      <c r="C14" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -966,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1013,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E6" si="0">B2*(C2*E$1+D2)</f>
+        <f t="shared" ref="E2:E7" si="0">B2*(C2*E$1+D2)</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -1025,25 +1050,21 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1053,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1064,17 +1085,17 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1089,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1102,33 +1123,51 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="訂單" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +313,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42654.680930787035" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42660.873373726849" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -829,7 +833,7 @@
   <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -904,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -994,7 +998,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="訂單" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="价格" sheetId="4" r:id="rId2"/>
+    <sheet name="原始订单" sheetId="1" r:id="rId3"/>
+    <sheet name="拿货价" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,33 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>，螺片（1包</t>
-  </si>
-  <si>
-    <t>，蚝豉（1包</t>
-  </si>
-  <si>
-    <t>美源染发膏棕色</t>
-  </si>
-  <si>
-    <t>1瓶</t>
-  </si>
-  <si>
-    <t>1包</t>
-  </si>
-  <si>
-    <t>玉兰油保湿润肤霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚝豉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +150,6 @@
     <t>不要黑人牙膏；要狮王或其他牌子</t>
   </si>
   <si>
-    <t>不要黑人牙膏；要狮王或其他牌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>求和项:数目</t>
   </si>
   <si>
@@ -238,13 +209,72 @@
   </si>
   <si>
     <t xml:space="preserve"> 30粒/瓶</t>
+  </si>
+  <si>
+    <t>狮王</t>
+  </si>
+  <si>
+    <t>狮王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>邮费</t>
+  </si>
+  <si>
+    <t>求和项:0.876</t>
+  </si>
+  <si>
+    <t>购货方</t>
+  </si>
+  <si>
+    <t>Dan 汇总</t>
+  </si>
+  <si>
+    <t>米 汇总</t>
+  </si>
+  <si>
+    <t>同 汇总</t>
+  </si>
+  <si>
+    <t>邮费 汇总</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>求和项:单价</t>
+  </si>
+  <si>
+    <t>求和项:单总价</t>
+  </si>
+  <si>
+    <t>拿货价</t>
+  </si>
+  <si>
+    <t>拿货价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>求和项:带工费</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +296,15 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +343,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -322,7 +364,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42661.360303009256" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:H1048576" sheet="原始订单"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="购货方" numFmtId="0">
@@ -372,6 +414,65 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42673.925995370373" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="9">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H10" sheet="原始订单"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="购货方" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Dan"/>
+        <s v="同"/>
+        <s v="米"/>
+        <s v="邮费"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="数目" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="单价" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="55"/>
+    </cacheField>
+    <cacheField name="带工费" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12"/>
+    </cacheField>
+    <cacheField name="单总价" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="60.18"/>
+    </cacheField>
+    <cacheField name="0.876" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="120.36"/>
+    </cacheField>
+    <cacheField name="商品" numFmtId="0">
+      <sharedItems count="9">
+        <s v="澳洲红糖"/>
+        <s v="无比膏"/>
+        <s v="Swisse 高浓度蔓越莓精华"/>
+        <s v="全脂德运奶粉"/>
+        <s v="方便面"/>
+        <s v="牙膏套装"/>
+        <s v="EDO饼干"/>
+        <s v="牙刷"/>
+        <s v="带工费"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
+        <s v="新西兰进口Red Seal/红印黑糖500g "/>
+        <s v="图已发，18g，红色的盖子"/>
+        <s v=" 30粒/瓶"/>
+        <s v="找个贵点的地方买，90左右港币"/>
+        <s v="（袋装）出前一丁等，不要四洲的"/>
+        <s v="狮王"/>
+        <s v="口味随意，便宜就好"/>
+        <s v="套装"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
   <r>
@@ -462,6 +563,101 @@
     <m/>
     <m/>
     <x v="9"/>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="5"/>
+    <n v="29.527999999999999"/>
+    <n v="59.055999999999997"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="23"/>
+    <n v="1"/>
+    <n v="21.148"/>
+    <n v="21.148"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="53"/>
+    <n v="5"/>
+    <n v="51.427999999999997"/>
+    <n v="51.427999999999997"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="55"/>
+    <n v="12"/>
+    <n v="60.18"/>
+    <n v="120.36"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="16.14"/>
+    <n v="16.14"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="15.891999999999999"/>
+    <n v="15.891999999999999"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <x v="8"/>
     <x v="8"/>
   </r>
 </pivotCacheRecords>
@@ -565,6 +761,141 @@
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:G18" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="7"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="6"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="5"/>
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+      <x v="8"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="求和项:单价" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="求和项:带工费" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="求和项:单总价" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="求和项:0.876" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -856,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -870,7 +1201,7 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -878,97 +1209,97 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -976,49 +1307,49 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
@@ -1033,23 +1364,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="B5:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>51.427999999999997</v>
+      </c>
+      <c r="G5" s="4">
+        <v>51.427999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>29.527999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>59.055999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>21.148</v>
+      </c>
+      <c r="G7" s="4">
+        <v>21.148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4">
+        <v>104</v>
+      </c>
+      <c r="E8" s="4">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>102.10399999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>131.63200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>16.14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>15.891999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>15.891999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>32.031999999999996</v>
+      </c>
+      <c r="G13" s="4">
+        <v>32.031999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>60.18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>120.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4">
+        <v>60.18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>120.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>191</v>
+      </c>
+      <c r="E18" s="4">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4">
+        <v>194.316</v>
+      </c>
+      <c r="G18" s="4">
+        <v>304.024</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="G1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1057,88 +1711,196 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1">
+        <v>0.876</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="E1">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
       <c r="E2">
-        <f t="shared" ref="E2:E8" si="0">B2*(C2*E$1+D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
+        <f>C2*$F$1+D2</f>
+        <v>29.527999999999999</v>
+      </c>
+      <c r="F2">
+        <f>B2*(C2*F$1+D2)</f>
+        <v>59.055999999999997</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <f>C2</f>
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <f>D2</f>
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <f>I2*$F$1+J2</f>
+        <v>29.527999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>53</v>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*$F$1+D3</f>
+        <v>21.148</v>
+      </c>
+      <c r="F3">
+        <f>B3*(C3*F$1+D3)</f>
+        <v>21.148</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="1">C3</f>
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="2">D3</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="3">I3*$F$1+J3</f>
+        <v>21.148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>51.427999999999997</v>
+      </c>
+      <c r="F4">
+        <f>B4*(C4*F$1+D4)</f>
+        <v>51.427999999999997</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>51.427999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+        <v>60.18</v>
+      </c>
+      <c r="F5">
+        <f>B5*(C5*F$1+D5)</f>
+        <v>120.36</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1147,34 +1909,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
+      <c r="F6">
+        <f>B6*(C6*F$1+D6)</f>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
+        <v>16.14</v>
+      </c>
+      <c r="F7">
+        <f>B7*(C7*F$1+D7)</f>
+        <v>16.14</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1183,30 +1983,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
+      <c r="F8">
+        <f>B8*(C8*F$1+D8)</f>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>50</v>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15.891999999999999</v>
+      </c>
+      <c r="F9">
+        <f>B9*(C9*F$1+D9)</f>
+        <v>15.891999999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>15.891999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1218,13 +2060,17 @@
         <v>0</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1237,66 +2083,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4">
+        <f>原始订单!I2</f>
+        <v>28</v>
+      </c>
+      <c r="D2" s="4">
+        <f>原始订单!J2</f>
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E2" s="4">
+        <f>原始订单!K2</f>
+        <v>29.527999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <f>原始订单!I3</f>
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <f>原始订单!J3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <f>原始订单!K3</f>
+        <v>21.148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4">
+        <f>原始订单!I4</f>
+        <v>53</v>
+      </c>
+      <c r="D4" s="4">
+        <f>原始订单!J4</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <f>原始订单!K4</f>
+        <v>51.427999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <f>原始订单!I5</f>
+        <v>55</v>
+      </c>
+      <c r="D5" s="4">
+        <f>原始订单!J5</f>
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <f>原始订单!K5</f>
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4">
+        <f>原始订单!I6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>原始订单!J6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>原始订单!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4">
+        <f>原始订单!I7</f>
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <f>原始订单!J7</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>原始订单!K7</f>
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <f>原始订单!I8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f>原始订单!J8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>原始订单!K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="C9" s="4">
+        <f>原始订单!I9</f>
+        <v>17</v>
+      </c>
+      <c r="D9" s="4">
+        <f>原始订单!J9</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <f>原始订单!K9</f>
+        <v>15.891999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,11 +230,7 @@
     <t>数目</t>
   </si>
   <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong</t>
+    <t>拿货价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +328,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42626.515471064813" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="22">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="购货方" numFmtId="0">
@@ -574,7 +570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:D34" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -1055,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="A28:D31"/>
     </sheetView>
   </sheetViews>
@@ -1478,22 +1474,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E2:E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="46.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1506,14 +1502,17 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1">
         <v>0.86499999999999999</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1527,14 +1526,18 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E18" si="0">B2*(C2*E$1+D2)</f>
+        <f>C2*$F$1+D2</f>
+        <v>22.03</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F18" si="0">B2*(C2*F$1+D2)</f>
         <v>66.09</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1548,14 +1551,18 @@
         <v>3</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E21" si="1">C3*$F$1+D3</f>
+        <v>24.625</v>
+      </c>
+      <c r="F3">
         <f t="shared" si="0"/>
         <v>73.875</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1569,14 +1576,18 @@
         <v>7</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>28.625</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>57.25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1590,14 +1601,18 @@
         <v>7</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>30.355</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>60.71</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1611,14 +1626,18 @@
         <v>3</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>24.625</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>24.625</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1632,14 +1651,18 @@
         <v>7</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>115.125</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>115.125</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1653,14 +1676,18 @@
         <v>7</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>30.355</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>30.355</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1674,14 +1701,18 @@
         <v>15</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>309.10000000000002</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>309.10000000000002</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1695,14 +1726,18 @@
         <v>6</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>57.9</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>57.9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1716,14 +1751,18 @@
         <v>5</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>41.33</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>41.33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1737,14 +1776,18 @@
         <v>5</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>50.844999999999999</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>50.844999999999999</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1758,14 +1801,18 @@
         <v>5</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>72.47</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>72.47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1779,14 +1826,18 @@
         <v>5</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
+        <v>46.519999999999996</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>46.519999999999996</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1800,14 +1851,18 @@
         <v>6</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
+        <v>57.9</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>57.9</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1821,14 +1876,18 @@
         <v>5</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>20.57</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>20.57</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1842,14 +1901,18 @@
         <v>3</v>
       </c>
       <c r="E17">
+        <f t="shared" si="1"/>
+        <v>24.625</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>24.625</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1863,14 +1926,18 @@
         <v>7</v>
       </c>
       <c r="E18">
+        <f t="shared" si="1"/>
+        <v>38.14</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>38.14</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1884,10 +1951,14 @@
         <v>0</v>
       </c>
       <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1901,14 +1972,18 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <f>B20*(C20*E$1+D20)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f>B20*(C20*F$1+D20)</f>
         <v>0</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1922,15 +1997,19 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <f>B21*(C21*E$1+D21)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <f>B21*(C21*F$1+D21)</f>
         <v>0</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="G22" s="3" t="s">
+    <row r="22" spans="1:8" ht="15">
+      <c r="H22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1949,7 +2028,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="D16:E18"/>
+      <selection activeCell="D12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1958,119 +2037,64 @@
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4">
-        <v>57.9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A1" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>60.71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>72.47</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>73.875</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>57.25</v>
-      </c>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>46.519999999999996</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>50.844999999999999</v>
-      </c>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <v>66.09</v>
-      </c>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4">
-        <v>41.33</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4">
-        <v>30.355</v>
-      </c>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4">
-        <v>24.625</v>
-      </c>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4">
-        <v>115.125</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4">
-        <v>30.355</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="4">
-        <v>24.625</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4">
-        <v>115.125</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>57.9</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>309.10000000000002</v>
-      </c>
+      <c r="D22" s="5"/>
+      <c r="F22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="訂單" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -766,7 +766,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:G18" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="G1:K9"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1756,7 +1756,7 @@
         <v>29.527999999999999</v>
       </c>
       <c r="F2">
-        <f>B2*(C2*F$1+D2)</f>
+        <f t="shared" ref="F2:F9" si="0">B2*(C2*F$1+D2)</f>
         <v>59.055999999999997</v>
       </c>
       <c r="G2" t="s">
@@ -1792,11 +1792,11 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">C3*$F$1+D3</f>
+        <f t="shared" ref="E3:E10" si="1">C3*$F$1+D3</f>
         <v>21.148</v>
       </c>
       <c r="F3">
-        <f>B3*(C3*F$1+D3)</f>
+        <f t="shared" si="0"/>
         <v>21.148</v>
       </c>
       <c r="G3" t="s">
@@ -1806,15 +1806,15 @@
         <v>46</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I9" si="1">C3</f>
+        <f t="shared" ref="I3:I9" si="2">C3</f>
         <v>23</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="2">D3</f>
+        <f t="shared" ref="J3:J9" si="3">D3</f>
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K9" si="3">I3*$F$1+J3</f>
+        <f t="shared" ref="K3:K9" si="4">I3*$F$1+J3</f>
         <v>21.148</v>
       </c>
     </row>
@@ -1832,13 +1832,13 @@
         <v>5</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>51.427999999999997</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>51.427999999999997</v>
       </c>
-      <c r="F4">
-        <f>B4*(C4*F$1+D4)</f>
-        <v>51.427999999999997</v>
-      </c>
       <c r="G4" t="s">
         <v>51</v>
       </c>
@@ -1846,15 +1846,15 @@
         <v>52</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.427999999999997</v>
       </c>
     </row>
@@ -1872,11 +1872,11 @@
         <v>12</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>60.18</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>60.18</v>
-      </c>
-      <c r="F5">
-        <f>B5*(C5*F$1+D5)</f>
         <v>120.36</v>
       </c>
       <c r="G5" t="s">
@@ -1886,15 +1886,15 @@
         <v>21</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.18</v>
       </c>
     </row>
@@ -1906,11 +1906,11 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>B6*(C6*F$1+D6)</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -1920,15 +1920,15 @@
         <v>28</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1946,13 +1946,13 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>16.14</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>16.14</v>
       </c>
-      <c r="F7">
-        <f>B7*(C7*F$1+D7)</f>
-        <v>16.14</v>
-      </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
@@ -1960,15 +1960,15 @@
         <v>54</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.14</v>
       </c>
     </row>
@@ -1980,11 +1980,11 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>B8*(C8*F$1+D8)</f>
         <v>0</v>
       </c>
       <c r="G8" t="s">
@@ -1994,15 +1994,15 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2020,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>15.891999999999999</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>15.891999999999999</v>
       </c>
-      <c r="F9">
-        <f>B9*(C9*F$1+D9)</f>
-        <v>15.891999999999999</v>
-      </c>
       <c r="G9" t="s">
         <v>41</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>43</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.891999999999999</v>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -2085,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2100,7 +2100,7 @@
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -2125,19 +2125,20 @@
         <v>24</v>
       </c>
       <c r="C2" s="4">
-        <f>原始订单!I2</f>
         <v>28</v>
       </c>
       <c r="D2" s="4">
-        <f>原始订单!J2</f>
         <v>5</v>
       </c>
       <c r="E2" s="4">
-        <f>原始订单!K2</f>
+        <f>C2*F2+D2</f>
         <v>29.527999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -2145,19 +2146,20 @@
         <v>45</v>
       </c>
       <c r="C3" s="4">
-        <f>原始订单!I3</f>
         <v>23</v>
       </c>
       <c r="D3" s="4">
-        <f>原始订单!J3</f>
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f>原始订单!K3</f>
+        <f t="shared" ref="E3:E9" si="0">C3*F3+D3</f>
         <v>21.148</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -2165,19 +2167,20 @@
         <v>52</v>
       </c>
       <c r="C4" s="4">
-        <f>原始订单!I4</f>
         <v>53</v>
       </c>
       <c r="D4" s="4">
-        <f>原始订单!J4</f>
         <v>5</v>
       </c>
       <c r="E4" s="4">
-        <f>原始订单!K4</f>
+        <f t="shared" si="0"/>
         <v>51.427999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -2185,19 +2188,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="4">
-        <f>原始订单!I5</f>
         <v>55</v>
       </c>
       <c r="D5" s="4">
-        <f>原始订单!J5</f>
         <v>12</v>
       </c>
       <c r="E5" s="4">
-        <f>原始订单!K5</f>
+        <f t="shared" si="0"/>
         <v>60.18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -2205,19 +2209,20 @@
         <v>27</v>
       </c>
       <c r="C6" s="4">
-        <f>原始订单!I6</f>
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>原始订单!J6</f>
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f>原始订单!K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2225,19 +2230,20 @@
         <v>53</v>
       </c>
       <c r="C7" s="4">
-        <f>原始订单!I7</f>
         <v>15</v>
       </c>
       <c r="D7" s="4">
-        <f>原始订单!J7</f>
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <f>原始订单!K7</f>
+        <f t="shared" si="0"/>
         <v>16.14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2245,19 +2251,20 @@
         <v>29</v>
       </c>
       <c r="C8" s="4">
-        <f>原始订单!I8</f>
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>原始订单!J8</f>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>原始订单!K8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2265,16 +2272,17 @@
         <v>42</v>
       </c>
       <c r="C9" s="4">
-        <f>原始订单!I9</f>
         <v>17</v>
       </c>
       <c r="D9" s="4">
-        <f>原始订单!J9</f>
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <f>原始订单!K9</f>
+        <f t="shared" si="0"/>
         <v>15.891999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.876</v>
       </c>
     </row>
   </sheetData>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,16 @@
   </si>
   <si>
     <t>瓶</t>
+  </si>
+  <si>
+    <t>条码为9开头的，里面油是粉分的那种</t>
+  </si>
+  <si>
+    <t>OLAY滋润保湿霜100G</t>
+  </si>
+  <si>
+    <t>同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -301,7 +311,13 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -311,70 +327,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.450134606479" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="5">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="原始订单"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="购货方" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="数目" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="单价" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="带工费" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="拿货价" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="0.876" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
-    </cacheField>
-    <cacheField name="商品" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
-        <s v="乐敦肌研极润"/>
-        <s v="资生堂洗面奶"/>
-        <s v="EDO饼干"/>
-        <s v="带工费"/>
-        <m/>
-        <s v="澳洲红糖" u="1"/>
-        <s v="全脂德运奶粉" u="1"/>
-        <s v="牙膏套装" u="1"/>
-        <s v="Swisse 高浓度蔓越莓精华" u="1"/>
-        <s v="牙刷" u="1"/>
-        <s v="无比膏" u="1"/>
-        <s v="方便面" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
-        <s v="玻尿酸透明质酸保湿化妆水170ML"/>
-        <s v="日本进口洗颜专科洗面奶柔澈泡沫洁面乳120g"/>
-        <s v="口味随意"/>
-        <m/>
-        <s v=" 30粒/瓶" u="1"/>
-        <s v="找个贵点的地方买，90左右港币" u="1"/>
-        <s v="不要黑人牙膏；要狮王或其他牌子" u="1"/>
-        <s v="新西兰进口Red Seal/红印黑糖500g " u="1"/>
-        <s v="口味随意，便宜就好" u="1"/>
-        <s v="（袋装）出前一丁等，不要四洲的" u="1"/>
-        <s v="洗发水和沐浴露¥7、蚝豉、螺片、肌研乳液、染发剂、玉兰油保湿霜和方便面是¥5、牙膏¥3、姜母茶¥6、金盏花水¥15、洗面奶¥2、依云喷雾¥7。" u="1"/>
-        <s v="套装" u="1"/>
-        <s v="图已发，18g，红色的盖子" u="1"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.450612037035" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H5" sheet="原始订单"/>
+    <worksheetSource ref="A1:H6" sheet="原始订单"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="购货方" numFmtId="0">
@@ -435,62 +390,70 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
-  <r>
-    <s v="Dan"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dan"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="米"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="邮费"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="20"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.482596527778" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="6">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H1048576" sheet="原始订单"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="购货方" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="数目" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="单价" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="带工费" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="拿货价" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="0.876" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+    <cacheField name="商品" numFmtId="0">
+      <sharedItems containsBlank="1" count="13">
+        <s v="乐敦肌研极润"/>
+        <s v="资生堂洗面奶"/>
+        <s v="EDO饼干"/>
+        <s v="OLAY滋润保湿霜100G"/>
+        <s v="带工费"/>
+        <m/>
+        <s v="澳洲红糖" u="1"/>
+        <s v="全脂德运奶粉" u="1"/>
+        <s v="牙膏套装" u="1"/>
+        <s v="Swisse 高浓度蔓越莓精华" u="1"/>
+        <s v="牙刷" u="1"/>
+        <s v="无比膏" u="1"/>
+        <s v="方便面" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1" count="14">
+        <s v="玻尿酸透明质酸保湿化妆水170ML"/>
+        <s v="日本进口洗颜专科洗面奶柔澈泡沫洁面乳120g"/>
+        <s v="口味随意"/>
+        <s v="条码为9开头的，里面油是粉分的那种"/>
+        <m/>
+        <s v="套装" u="1"/>
+        <s v=" 30粒/瓶" u="1"/>
+        <s v="口味随意，便宜就好" u="1"/>
+        <s v="新西兰进口Red Seal/红印黑糖500g " u="1"/>
+        <s v="不要黑人牙膏；要狮王或其他牌子" u="1"/>
+        <s v="（袋装）出前一丁等，不要四洲的" u="1"/>
+        <s v="图已发，18g，红色的盖子" u="1"/>
+        <s v="找个贵点的地方买，90左右港币" u="1"/>
+        <s v="洗发水和沐浴露¥7、蚝豉、螺片、肌研乳液、染发剂、玉兰油保湿霜和方便面是¥5、牙膏¥3、姜母茶¥6、金盏花水¥15、洗面奶¥2、依云喷雾¥7。" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
   <r>
     <x v="0"/>
@@ -535,9 +498,74 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
+  <r>
+    <s v="Dan"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dan"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="米"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="同"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="邮费"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C8" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -546,36 +574,38 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
+      <items count="13">
+        <item h="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="8"/>
         <item h="1" x="4"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
-        <item m="1" x="5"/>
+        <item m="1" x="10"/>
         <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item h="1" x="3"/>
         <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="13">
+      <items count="14">
+        <item m="1" x="10"/>
         <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="12"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="11"/>
         <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="4"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -583,7 +613,7 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x v="2"/>
       <x v="12"/>
@@ -596,6 +626,10 @@
       <x v="11"/>
       <x v="11"/>
     </i>
+    <i>
+      <x v="12"/>
+      <x v="13"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -607,7 +641,7 @@
     <dataField name="求和项:数目" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1012,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D8"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1086,10 +1120,24 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>3</v>
+      <c r="C9" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1264,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1276,8 +1324,8 @@
     <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.25" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1358,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">C3*$F$1+D3</f>
+        <f t="shared" ref="E3:E6" si="1">C3*$F$1+D3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1418,30 +1466,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,37 @@
   </si>
   <si>
     <t>同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗发水</t>
+  </si>
+  <si>
+    <t>沐浴露</t>
+  </si>
+  <si>
+    <t>Limy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多芬,牛奶味</t>
+  </si>
+  <si>
+    <t>多芬,牛奶味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙膏</t>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮王，20左右</t>
+  </si>
+  <si>
+    <t>狮王，20左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,13 +342,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -329,7 +354,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.450612037035" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H6" sheet="原始订单"/>
+    <worksheetSource ref="A1:H9" sheet="原始订单"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="购货方" numFmtId="0">
@@ -391,7 +416,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.482596527778" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="6">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.646539814814" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="原始订单"/>
   </cacheSource>
@@ -415,32 +440,38 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
     </cacheField>
     <cacheField name="商品" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="16">
         <s v="乐敦肌研极润"/>
         <s v="资生堂洗面奶"/>
         <s v="EDO饼干"/>
         <s v="OLAY滋润保湿霜100G"/>
+        <s v="洗发水"/>
+        <s v="沐浴露"/>
+        <s v="牙膏"/>
         <s v="带工费"/>
         <m/>
-        <s v="澳洲红糖" u="1"/>
-        <s v="全脂德运奶粉" u="1"/>
-        <s v="牙膏套装" u="1"/>
-        <s v="Swisse 高浓度蔓越莓精华" u="1"/>
         <s v="牙刷" u="1"/>
         <s v="无比膏" u="1"/>
+        <s v="牙膏套装" u="1"/>
+        <s v="澳洲红糖" u="1"/>
         <s v="方便面" u="1"/>
+        <s v="Swisse 高浓度蔓越莓精华" u="1"/>
+        <s v="全脂德运奶粉" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" count="14">
+      <sharedItems containsBlank="1" count="17">
         <s v="玻尿酸透明质酸保湿化妆水170ML"/>
         <s v="日本进口洗颜专科洗面奶柔澈泡沫洁面乳120g"/>
         <s v="口味随意"/>
         <s v="条码为9开头的，里面油是粉分的那种"/>
+        <s v="多芬,牛奶味"/>
+        <s v="狮王，20左右"/>
         <m/>
         <s v="套装" u="1"/>
         <s v=" 30粒/瓶" u="1"/>
         <s v="口味随意，便宜就好" u="1"/>
+        <s v="狮王" u="1"/>
         <s v="新西兰进口Red Seal/红印黑糖500g " u="1"/>
         <s v="不要黑人牙膏；要狮王或其他牌子" u="1"/>
         <s v="（袋装）出前一丁等，不要四洲的" u="1"/>
@@ -499,7 +530,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
   <r>
     <s v="Dan"/>
     <n v="1"/>
@@ -541,14 +572,44 @@
     <x v="3"/>
   </r>
   <r>
+    <s v="Limy"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Limy"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Limy"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
     <s v="邮费"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="20"/>
-    <x v="4"/>
-    <x v="4"/>
+    <x v="7"/>
+    <x v="6"/>
   </r>
   <r>
     <m/>
@@ -557,15 +618,15 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
-    <x v="4"/>
+    <x v="8"/>
+    <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C9" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C12" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -574,38 +635,44 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="13">
-        <item h="1" x="5"/>
-        <item m="1" x="7"/>
+      <items count="16">
+        <item h="1" x="8"/>
+        <item m="1" x="15"/>
         <item x="2"/>
-        <item m="1" x="6"/>
         <item m="1" x="12"/>
-        <item m="1" x="8"/>
-        <item h="1" x="4"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item x="7"/>
+        <item m="1" x="9"/>
         <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
+        <item m="1" x="14"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item m="1" x="10"/>
+      <items count="17">
+        <item m="1" x="13"/>
+        <item m="1" x="12"/>
         <item m="1" x="9"/>
+        <item m="1" x="16"/>
+        <item m="1" x="11"/>
+        <item m="1" x="15"/>
+        <item h="1" x="6"/>
         <item m="1" x="7"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
         <item m="1" x="8"/>
-        <item m="1" x="12"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="11"/>
-        <item m="1" x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="10"/>
+        <item x="5"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -613,7 +680,7 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="8">
     <i>
       <x v="2"/>
       <x v="12"/>
@@ -630,6 +697,18 @@
       <x v="12"/>
       <x v="13"/>
     </i>
+    <i>
+      <x v="13"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="16"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -641,7 +720,7 @@
     <dataField name="求和项:数目" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -650,7 +729,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -1046,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A32" activeCellId="1" sqref="F16 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1129,15 +1208,57 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>13</v>
+      <c r="C12" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1273,7 @@
   <dimension ref="A3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A32" activeCellId="1" sqref="F16 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1312,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1366,7 +1487,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1376,14 +1497,14 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F4" si="0">B2*(C2*F$1+D2)</f>
+        <f>B2*(C2*F$1+D2)</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I2">
         <f>C2</f>
@@ -1406,41 +1527,41 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">C3*$F$1+D3</f>
+        <f>C3*$F$1+D3</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F4" si="0">B3*(C3*F$1+D3)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I4" si="2">C3</f>
+        <f>C3</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J4" si="3">D3</f>
+        <f>D3</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K4" si="4">I3*$F$1+J3</f>
+        <f>I3*$F$1+J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:E9" si="1">C4*$F$1+D4</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -1448,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I4" si="2">C4</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J4" si="3">D4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K4" si="4">I4*$F$1+J4</f>
         <v>0</v>
       </c>
     </row>
@@ -1480,30 +1601,72 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1522,7 +1685,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="A32" activeCellId="1" sqref="F16 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -15,13 +15,13 @@
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,17 @@
   </si>
   <si>
     <t>狮王，20左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧街白咖啡</t>
+  </si>
+  <si>
+    <t>旧街白咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +353,25 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -354,7 +383,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.450612037035" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H9" sheet="原始订单"/>
+    <worksheetSource ref="A1:H10" sheet="原始订单"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="购货方" numFmtId="0">
@@ -416,7 +445,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.646539814814" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="9">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42695.393649189813" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="原始订单"/>
   </cacheSource>
@@ -440,10 +469,11 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
     </cacheField>
     <cacheField name="商品" numFmtId="0">
-      <sharedItems containsBlank="1" count="16">
+      <sharedItems containsBlank="1" count="17">
+        <s v="EDO饼干"/>
+        <s v="旧街白咖啡"/>
         <s v="乐敦肌研极润"/>
         <s v="资生堂洗面奶"/>
-        <s v="EDO饼干"/>
         <s v="OLAY滋润保湿霜100G"/>
         <s v="洗发水"/>
         <s v="沐浴露"/>
@@ -460,10 +490,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" count="17">
+      <sharedItems containsBlank="1" count="18">
+        <s v="口味随意"/>
+        <s v="旧街白咖啡"/>
         <s v="玻尿酸透明质酸保湿化妆水170ML"/>
         <s v="日本进口洗颜专科洗面奶柔澈泡沫洁面乳120g"/>
-        <s v="口味随意"/>
         <s v="条码为9开头的，里面油是粉分的那种"/>
         <s v="多芬,牛奶味"/>
         <s v="狮王，20左右"/>
@@ -530,9 +561,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
   <r>
-    <s v="Dan"/>
+    <s v="米"/>
     <n v="1"/>
     <m/>
     <m/>
@@ -542,17 +573,17 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="Dan"/>
+    <s v="米"/>
     <n v="1"/>
     <m/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <m/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="米"/>
+    <s v="Dan"/>
     <n v="1"/>
     <m/>
     <m/>
@@ -562,18 +593,18 @@
     <x v="2"/>
   </r>
   <r>
-    <s v="同"/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Dan"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Limy"/>
-    <n v="1"/>
+    <s v="同"/>
+    <n v="10"/>
     <m/>
     <m/>
     <m/>
@@ -589,7 +620,7 @@
     <m/>
     <m/>
     <x v="5"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Limy"/>
@@ -600,6 +631,16 @@
     <m/>
     <x v="6"/>
     <x v="5"/>
+  </r>
+  <r>
+    <s v="Limy"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="邮费"/>
@@ -608,8 +649,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="20"/>
+    <x v="8"/>
     <x v="7"/>
-    <x v="6"/>
   </r>
   <r>
     <m/>
@@ -618,15 +659,15 @@
     <m/>
     <m/>
     <m/>
-    <x v="8"/>
-    <x v="6"/>
+    <x v="9"/>
+    <x v="7"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C12" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C13" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -635,44 +676,46 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="16">
-        <item h="1" x="8"/>
+      <items count="17">
+        <item h="1" x="9"/>
+        <item m="1" x="16"/>
+        <item x="0"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item m="1" x="15"/>
         <item x="2"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item x="7"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="14"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="17">
+      <items count="18">
+        <item m="1" x="14"/>
         <item m="1" x="13"/>
+        <item m="1" x="10"/>
+        <item m="1" x="17"/>
         <item m="1" x="12"/>
+        <item m="1" x="16"/>
+        <item h="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="15"/>
         <item m="1" x="9"/>
-        <item m="1" x="16"/>
-        <item m="1" x="11"/>
-        <item m="1" x="15"/>
-        <item h="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="14"/>
-        <item m="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="0"/>
         <item x="4"/>
-        <item m="1" x="10"/>
         <item x="5"/>
+        <item m="1" x="11"/>
+        <item x="6"/>
+        <item x="1"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -680,7 +723,7 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="2"/>
       <x v="12"/>
@@ -709,6 +752,10 @@
       <x v="15"/>
       <x v="16"/>
     </i>
+    <i>
+      <x v="16"/>
+      <x v="17"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -720,7 +767,7 @@
     <dataField name="求和项:数目" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1125,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D12"/>
+  <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" activeCellId="1" sqref="F16 A32"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1255,10 +1302,24 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
-        <v>16</v>
+      <c r="C13" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1433,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1521,36 +1582,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>C3*$F$1+D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F4" si="0">B3*(C3*F$1+D3)</f>
-        <v>0</v>
-      </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3">
-        <f>C3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>I3*$F$1+J3</f>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1561,58 +1602,78 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="1">C4*$F$1+D4</f>
+        <f>C4*$F$1+D4</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F5" si="0">B4*(C4*F$1+D4)</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4" si="2">C4</f>
+        <f>C4</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4" si="3">D4</f>
+        <f>D4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4" si="4">I4*$F$1+J4</f>
+        <f>I4*$F$1+J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E10" si="1">C5*$F$1+D5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5" si="2">C5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="3">D5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5" si="4">I5*$F$1+J5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1623,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
         <v>67</v>
@@ -1637,36 +1698,50 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/shop.xlsx
+++ b/shop.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="訂單" sheetId="3" r:id="rId1"/>
     <sheet name="价格" sheetId="4" r:id="rId2"/>
     <sheet name="原始订单" sheetId="1" r:id="rId3"/>
     <sheet name="拿货价" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="16" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,9 +149,6 @@
     <t>邮费</t>
   </si>
   <si>
-    <t>求和项:0.876</t>
-  </si>
-  <si>
     <t>购货方</t>
   </si>
   <si>
@@ -269,6 +267,49 @@
   <si>
     <t>包</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜母茶</t>
+  </si>
+  <si>
+    <t>姜母茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小土</t>
+  </si>
+  <si>
+    <t>小土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国海鲜乌龙拉面</t>
+  </si>
+  <si>
+    <t>韩国海鲜乌龙拉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>同 汇总</t>
+  </si>
+  <si>
+    <t>Limy</t>
+  </si>
+  <si>
+    <t>Limy 汇总</t>
+  </si>
+  <si>
+    <t>小土 汇总</t>
+  </si>
+  <si>
+    <t>求和项:0.892</t>
   </si>
 </sst>
 </file>
@@ -353,25 +394,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -381,70 +404,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42691.450612037035" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="4">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H10" sheet="原始订单"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="购货方" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Dan"/>
-        <s v="米"/>
-        <s v="邮费"/>
-        <s v="同" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="数目" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="单价" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="带工费" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="拿货价" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="0.876" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
-    </cacheField>
-    <cacheField name="商品" numFmtId="0">
-      <sharedItems count="11">
-        <s v="乐敦肌研极润"/>
-        <s v="资生堂洗面奶"/>
-        <s v="EDO饼干"/>
-        <s v="带工费"/>
-        <s v="澳洲红糖" u="1"/>
-        <s v="全脂德运奶粉" u="1"/>
-        <s v="牙膏套装" u="1"/>
-        <s v="Swisse 高浓度蔓越莓精华" u="1"/>
-        <s v="牙刷" u="1"/>
-        <s v="无比膏" u="1"/>
-        <s v="方便面" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
-        <s v="玻尿酸透明质酸保湿化妆水170ML"/>
-        <s v="日本进口洗颜专科洗面奶柔澈泡沫洁面乳120g"/>
-        <s v="口味随意"/>
-        <m/>
-        <s v=" 30粒/瓶" u="1"/>
-        <s v="找个贵点的地方买，90左右港币" u="1"/>
-        <s v="狮王" u="1"/>
-        <s v="新西兰进口Red Seal/红印黑糖500g " u="1"/>
-        <s v="口味随意，便宜就好" u="1"/>
-        <s v="（袋装）出前一丁等，不要四洲的" u="1"/>
-        <s v="套装" u="1"/>
-        <s v="图已发，18g，红色的盖子" u="1"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="王华" refreshedDate="42695.393649189813" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="原始订单"/>
@@ -515,52 +474,85 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="20"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42697.867304861109" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="12">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H13" sheet="原始订单"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="购货方" numFmtId="0">
+      <sharedItems count="6">
+        <s v="米"/>
+        <s v="Dan"/>
+        <s v="同"/>
+        <s v="Limy"/>
+        <s v="小土"/>
+        <s v="邮费"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="数目" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="单价" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="128"/>
+    </cacheField>
+    <cacheField name="带工费" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
+    </cacheField>
+    <cacheField name="拿货价" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="119.176"/>
+    </cacheField>
+    <cacheField name="0.892" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.811999999999999" maxValue="286.89600000000002"/>
+    </cacheField>
+    <cacheField name="商品" numFmtId="0">
+      <sharedItems count="17">
+        <s v="EDO饼干"/>
+        <s v="旧街白咖啡"/>
+        <s v="乐敦肌研极润"/>
+        <s v="资生堂洗面奶"/>
+        <s v="姜母茶"/>
+        <s v="OLAY滋润保湿霜100G"/>
+        <s v="洗发水"/>
+        <s v="沐浴露"/>
+        <s v="牙膏"/>
+        <s v="方便面"/>
+        <s v="带工费"/>
+        <s v="牙刷" u="1"/>
+        <s v="无比膏" u="1"/>
+        <s v="牙膏套装" u="1"/>
+        <s v="澳洲红糖" u="1"/>
+        <s v="Swisse 高浓度蔓越莓精华" u="1"/>
+        <s v="全脂德运奶粉" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1" count="18">
+        <s v="口味随意"/>
+        <s v="旧街白咖啡"/>
+        <s v="玻尿酸透明质酸保湿化妆水170ML"/>
+        <s v="日本进口洗颜专科洗面奶柔澈泡沫洁面乳120g"/>
+        <s v="姜母茶"/>
+        <s v="条码为9开头的，里面油是粉分的那种"/>
+        <s v="多芬,牛奶味"/>
+        <s v="狮王，20左右"/>
+        <s v="韩国海鲜乌龙拉面"/>
+        <m/>
+        <s v="套装" u="1"/>
+        <s v=" 30粒/瓶" u="1"/>
+        <s v="口味随意，便宜就好" u="1"/>
+        <s v="狮王" u="1"/>
+        <s v="新西兰进口Red Seal/红印黑糖500g " u="1"/>
+        <s v="（袋装）出前一丁等，不要四洲的" u="1"/>
+        <s v="图已发，18g，红色的盖子" u="1"/>
+        <s v="找个贵点的地方买，90左右港币" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
   <r>
     <s v="米"/>
@@ -665,8 +657,133 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="12.811999999999999"/>
+    <n v="12.811999999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="29"/>
+    <n v="5"/>
+    <n v="30.868000000000002"/>
+    <n v="30.868000000000002"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="128"/>
+    <n v="5"/>
+    <n v="119.176"/>
+    <n v="119.176"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="28"/>
+    <n v="3"/>
+    <n v="27.975999999999999"/>
+    <n v="27.975999999999999"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="6"/>
+    <n v="59.52"/>
+    <n v="59.52"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="48"/>
+    <n v="5"/>
+    <n v="47.816000000000003"/>
+    <n v="286.89600000000002"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="53"/>
+    <n v="5"/>
+    <n v="52.276000000000003"/>
+    <n v="209.10400000000001"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="27"/>
+    <n v="7"/>
+    <n v="31.084"/>
+    <n v="31.084"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="27"/>
+    <n v="7"/>
+    <n v="31.084"/>
+    <n v="31.084"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="18.164000000000001"/>
+    <n v="18.164000000000001"/>
+    <x v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="22"/>
+    <n v="5"/>
+    <n v="24.623999999999999"/>
+    <n v="24.623999999999999"/>
+    <x v="9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <x v="10"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C13" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -767,7 +884,7 @@
     <dataField name="求和项:数目" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -776,15 +893,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:F22" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="5">
+      <items count="7">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="3"/>
         <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -792,36 +911,48 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="11">
-        <item x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
+      <items count="17">
+        <item x="0"/>
+        <item m="1" x="15"/>
+        <item m="1" x="14"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item m="1" x="16"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item sd="0" x="2"/>
         <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item x="0"/>
         <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="13">
-        <item m="1" x="4"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item m="1" x="6"/>
+      <items count="19">
+        <item m="1" x="11"/>
+        <item m="1" x="15"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
         <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="14"/>
+        <item m="1" x="17"/>
+        <item x="9"/>
+        <item x="2"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -831,15 +962,18 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="18">
     <i>
       <x/>
       <x v="9"/>
-      <x v="9"/>
     </i>
     <i r="1">
       <x v="10"/>
       <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+      <x v="13"/>
     </i>
     <i t="default">
       <x/>
@@ -849,8 +983,20 @@
       <x/>
       <x v="11"/>
     </i>
+    <i r="1">
+      <x v="11"/>
+      <x v="12"/>
+    </i>
     <i t="default">
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="13"/>
+      <x v="14"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -859,6 +1005,30 @@
     </i>
     <i t="default">
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="14"/>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+      <x v="16"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="4"/>
+      <x v="17"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -881,7 +1051,7 @@
   <dataFields count="3">
     <dataField name="求和项:单价" fld="2" baseField="0" baseItem="0"/>
     <dataField name="求和项:带工费" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="求和项:0.876" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:0.892" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -1174,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1207,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1218,38 +1388,38 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -1260,58 +1430,58 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1331,31 +1501,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" activeCellId="1" sqref="F16 A32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1364,126 +1535,348 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="4">
+        <v>128</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
       <c r="F5" s="4">
+        <v>119.176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>27.975999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>59.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4">
+        <v>216</v>
+      </c>
+      <c r="E8" s="4">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4">
+        <v>206.672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>12.811999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>30.868000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4">
+        <v>101</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4">
+        <v>101</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4">
+        <v>496</v>
+      </c>
+      <c r="G13">
+        <v>560</v>
+      </c>
+      <c r="H13">
+        <f>G13-GETPIVOTDATA("求和项:0.892",$A$3,"购货方","同")</f>
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <f>H13/G13</f>
+        <v>0.11428571428571428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="E14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="F14" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="E15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="F15" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>31.084</v>
+      </c>
+      <c r="G16" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4">
+        <v>31.084</v>
+      </c>
+      <c r="G17" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="G18" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="4">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4">
+        <v>80.331999999999994</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G16:G18)</f>
+        <v>90</v>
+      </c>
+      <c r="H19">
+        <f>G19-GETPIVOTDATA("求和项:0.892",$A$3,"购货方","Limy")</f>
+        <v>9.6680000000000064</v>
+      </c>
+      <c r="I19">
+        <f>H19/G19</f>
+        <v>0.10742222222222229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="4">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20</v>
+      <c r="F20" s="4">
+        <v>24.623999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="4">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>24.623999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>450</v>
+      </c>
+      <c r="E22" s="4">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4">
+        <v>871.30799999999988</v>
       </c>
     </row>
   </sheetData>
@@ -1494,17 +1887,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
     <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.5" bestFit="1" customWidth="1"/>
@@ -1525,10 +1919,10 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1">
-        <v>0.876</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1543,55 +1937,75 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
       <c r="E2">
         <f>C2*$F$1+D2</f>
-        <v>0</v>
+        <v>12.811999999999999</v>
       </c>
       <c r="F2">
         <f>B2*(C2*F$1+D2)</f>
-        <v>0</v>
+        <v>12.811999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2">
         <f>C2</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <f>D2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <f>I2*$F$1+J2</f>
-        <v>0</v>
+        <v>12.811999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">C3*$F$1+D3</f>
+        <v>30.868000000000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="1">B3*(C3*F$1+D3)</f>
+        <v>30.868000000000002</v>
+      </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1601,31 +2015,37 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
       <c r="E4">
-        <f>C4*$F$1+D4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>119.176</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="0">B4*(C4*F$1+D4)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>119.176</v>
       </c>
       <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
       </c>
       <c r="I4">
         <f>C4</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J4">
         <f>D4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f>I4*$F$1+J4</f>
-        <v>0</v>
+        <v>119.176</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1635,113 +2055,259 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
       <c r="E5">
-        <f t="shared" ref="E5:E10" si="1">C5*$F$1+D5</f>
+        <f t="shared" si="0"/>
+        <v>27.975999999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>27.975999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5" si="2">C5</f>
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="3">D5</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5" si="4">I5*$F$1+J5</f>
+        <v>27.975999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6" si="5">C6*$F$1+D6</f>
+        <v>59.52</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="6">B6*(C6*F$1+D6)</f>
+        <v>59.52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>47.816000000000003</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>286.89600000000002</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>52.276000000000003</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>209.10400000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>31.084</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>31.084</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>31.084</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>31.084</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>18.164000000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>18.164000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="7">C12*$F$1+D12</f>
+        <v>24.623999999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="8">B12*(C12*F$1+D12)</f>
+        <v>24.623999999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5" si="2">C5</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5" si="3">D5</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5" si="4">I5*$F$1+J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1757,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" activeCellId="1" sqref="F16 A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1769,7 +2335,7 @@
     <col min="2" max="2" width="34.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1780,13 +2346,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1955,10 +2521,230 @@
       </c>
       <c r="F9">
         <v>0.876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>128</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>119.176</v>
+      </c>
+      <c r="F10">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>27.975999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>59.52</v>
+      </c>
+      <c r="F12">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12.811999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>30.868000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <f>C15*F15+D15</f>
+        <v>50.491999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>31.084</v>
+      </c>
+      <c r="F16">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="4">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4">
+        <v>31.084</v>
+      </c>
+      <c r="F17">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="4">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>24.623999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.89200000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/shop.xlsx
+++ b/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13935" windowHeight="6870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="訂單" sheetId="3" r:id="rId1"/>
@@ -15,14 +15,14 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="16" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,9 +46,6 @@
     <t>总计</t>
   </si>
   <si>
-    <t>(空白)</t>
-  </si>
-  <si>
     <t>汇总</t>
   </si>
   <si>
@@ -310,6 +307,28 @@
   </si>
   <si>
     <t>求和项:0.892</t>
+  </si>
+  <si>
+    <t>玉米片</t>
+  </si>
+  <si>
+    <t>玉米片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多明戈波波焦糖味</t>
+  </si>
+  <si>
+    <t>多明戈波波焦糖味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -357,12 +376,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -371,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +422,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,9 +515,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42697.867304861109" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="42702.863028009262" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H13" sheet="原始订单"/>
+    <worksheetSource ref="A1:H14" sheet="原始订单"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="购货方" numFmtId="0">
@@ -494,7 +534,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
     </cacheField>
     <cacheField name="单价" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="128"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="128"/>
     </cacheField>
     <cacheField name="带工费" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
@@ -506,7 +546,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.811999999999999" maxValue="286.89600000000002"/>
     </cacheField>
     <cacheField name="商品" numFmtId="0">
-      <sharedItems count="17">
+      <sharedItems count="18">
         <s v="EDO饼干"/>
         <s v="旧街白咖啡"/>
         <s v="乐敦肌研极润"/>
@@ -517,6 +557,7 @@
         <s v="沐浴露"/>
         <s v="牙膏"/>
         <s v="方便面"/>
+        <s v="玉米片"/>
         <s v="带工费"/>
         <s v="牙刷" u="1"/>
         <s v="无比膏" u="1"/>
@@ -527,7 +568,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" count="18">
+      <sharedItems containsBlank="1" count="20">
         <s v="口味随意"/>
         <s v="旧街白咖啡"/>
         <s v="玻尿酸透明质酸保湿化妆水170ML"/>
@@ -537,7 +578,9 @@
         <s v="多芬,牛奶味"/>
         <s v="狮王，20左右"/>
         <s v="韩国海鲜乌龙拉面"/>
-        <m/>
+        <s v="多明戈波波焦糖味"/>
+        <s v="带工费"/>
+        <m u="1"/>
         <s v="套装" u="1"/>
         <s v=" 30粒/瓶" u="1"/>
         <s v="口味随意，便宜就好" u="1"/>
@@ -658,7 +701,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
   <r>
     <x v="0"/>
     <n v="1"/>
@@ -770,20 +813,30 @@
     <x v="8"/>
   </r>
   <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="19.8"/>
+    <n v="1"/>
+    <n v="18.6616"/>
+    <n v="18.6616"/>
+    <x v="10"/>
+    <x v="9"/>
+  </r>
+  <r>
     <x v="5"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="20"/>
+    <n v="18"/>
+    <x v="11"/>
     <x v="10"/>
-    <x v="9"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C13" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -894,7 +947,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:F22" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
+  <location ref="A3:F23" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="7">
@@ -913,16 +966,16 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="17">
+      <items count="18">
         <item x="0"/>
+        <item m="1" x="16"/>
         <item m="1" x="15"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item m="1" x="17"/>
+        <item m="1" x="13"/>
         <item m="1" x="14"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item m="1" x="16"/>
         <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
         <item sd="0" x="2"/>
         <item x="3"/>
         <item x="1"/>
@@ -931,19 +984,20 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="10"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="19">
-        <item m="1" x="11"/>
+      <items count="21">
+        <item m="1" x="13"/>
+        <item m="1" x="17"/>
+        <item m="1" x="14"/>
         <item m="1" x="15"/>
         <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="10"/>
+        <item m="1" x="18"/>
         <item m="1" x="16"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item x="9"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
         <item x="2"/>
         <item x="3"/>
         <item x="0"/>
@@ -953,6 +1007,8 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -962,7 +1018,7 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="19">
     <i>
       <x/>
       <x v="9"/>
@@ -1001,7 +1057,7 @@
     <i>
       <x v="3"/>
       <x v="3"/>
-      <x v="8"/>
+      <x v="19"/>
     </i>
     <i t="default">
       <x v="3"/>
@@ -1026,6 +1082,10 @@
       <x v="5"/>
       <x v="4"/>
       <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+      <x v="18"/>
     </i>
     <i t="default">
       <x v="5"/>
@@ -1358,7 +1418,7 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1366,122 +1426,122 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1501,55 +1561,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:I22"/>
+  <dimension ref="A3:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4">
         <v>128</v>
@@ -1561,12 +1620,12 @@
         <v>119.176</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="4">
         <v>28</v>
@@ -1578,12 +1637,12 @@
         <v>27.975999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4">
         <v>60</v>
@@ -1595,9 +1654,9 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4">
         <v>216</v>
@@ -1609,15 +1668,15 @@
         <v>206.672</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4">
         <v>11</v>
@@ -1629,12 +1688,12 @@
         <v>12.811999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <v>29</v>
@@ -1646,9 +1705,9 @@
         <v>30.868000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4">
         <v>40</v>
@@ -1660,15 +1719,15 @@
         <v>43.68</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4">
         <v>101</v>
@@ -1680,9 +1739,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4">
         <v>101</v>
@@ -1694,26 +1753,21 @@
         <v>496</v>
       </c>
       <c r="G13">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H13">
-        <f>G13-GETPIVOTDATA("求和项:0.892",$A$3,"购货方","同")</f>
-        <v>64</v>
-      </c>
-      <c r="I13">
-        <f>H13/G13</f>
-        <v>0.11428571428571428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -1722,12 +1776,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -1736,18 +1790,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4">
         <v>27</v>
@@ -1762,12 +1816,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4">
         <v>27</v>
@@ -1782,12 +1836,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4">
         <v>17</v>
@@ -1802,9 +1856,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4">
         <v>71</v>
@@ -1816,27 +1870,21 @@
         <v>80.331999999999994</v>
       </c>
       <c r="G19">
-        <f>SUM(G16:G18)</f>
         <v>90</v>
       </c>
       <c r="H19">
-        <f>G19-GETPIVOTDATA("求和项:0.892",$A$3,"购货方","Limy")</f>
-        <v>9.6680000000000064</v>
-      </c>
-      <c r="I19">
-        <f>H19/G19</f>
-        <v>0.10742222222222229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4">
         <v>22</v>
@@ -1847,36 +1895,63 @@
       <c r="F20" s="4">
         <v>24.623999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>85</v>
+      <c r="G20" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
       </c>
       <c r="D21" s="4">
-        <v>22</v>
+        <v>19.8</v>
       </c>
       <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>18.6616</v>
+      </c>
+      <c r="G21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="4">
+        <v>41.8</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43.285600000000002</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G20:G21)</f>
+        <v>45</v>
+      </c>
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="F21" s="4">
-        <v>24.623999999999999</v>
-      </c>
-      <c r="G21" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4">
-        <v>450</v>
-      </c>
-      <c r="E22" s="4">
-        <v>54</v>
-      </c>
-      <c r="F22" s="4">
-        <v>871.30799999999988</v>
+      <c r="D23" s="4">
+        <v>469.8</v>
+      </c>
+      <c r="E23" s="4">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4">
+        <v>887.9695999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1887,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1913,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1">
         <v>0.89200000000000002</v>
@@ -1928,21 +2003,21 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1962,10 +2037,10 @@
         <v>12.811999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <f>C2</f>
@@ -1982,7 +2057,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1994,18 +2069,18 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">C3*$F$1+D3</f>
+        <f t="shared" ref="E3:E14" si="0">C3*$F$1+D3</f>
         <v>30.868000000000002</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="1">B3*(C3*F$1+D3)</f>
+        <f t="shared" ref="F3:F11" si="1">B3*(C3*F$1+D3)</f>
         <v>30.868000000000002</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2030,10 +2105,10 @@
         <v>119.176</v>
       </c>
       <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
         <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
       </c>
       <c r="I4">
         <f>C4</f>
@@ -2070,10 +2145,10 @@
         <v>27.975999999999999</v>
       </c>
       <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5" si="2">C5</f>
@@ -2110,15 +2185,15 @@
         <v>59.52</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2138,15 +2213,15 @@
         <v>286.89600000000002</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -2166,15 +2241,15 @@
         <v>209.10400000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2194,15 +2269,15 @@
         <v>31.084</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2222,15 +2297,15 @@
         <v>31.084</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2250,15 +2325,15 @@
         <v>18.164000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2270,45 +2345,88 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="7">C12*$F$1+D12</f>
+        <f t="shared" ref="E12:E13" si="7">C12*$F$1+D12</f>
         <v>24.623999999999999</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12" si="8">B12*(C12*F$1+D12)</f>
+        <f t="shared" ref="F12:F13" si="8">B12*(C12*F$1+D12)</f>
         <v>24.623999999999999</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
+        <v>19.8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="7"/>
+        <v>18.6616</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>18.6616</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13" si="9">C13</f>
+        <v>19.8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="10">D13</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="11">I13*$F$1+J13</f>
+        <v>18.6616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>10</v>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2323,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2343,24 +2461,24 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="4">
         <v>28</v>
@@ -2378,10 +2496,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="4">
         <v>23</v>
@@ -2399,10 +2517,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
       </c>
       <c r="C4" s="4">
         <v>53</v>
@@ -2420,10 +2538,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>55</v>
@@ -2441,10 +2559,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -2462,10 +2580,10 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4">
         <v>15</v>
@@ -2483,10 +2601,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -2504,10 +2622,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="4">
         <v>17</v>
@@ -2525,10 +2643,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="4">
         <v>128</v>
@@ -2545,10 +2663,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="4">
         <v>28</v>
@@ -2565,10 +2683,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4">
         <v>60</v>
@@ -2585,10 +2703,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -2605,10 +2723,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4">
         <v>29</v>
@@ -2625,10 +2743,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4">
         <v>51</v>
@@ -2646,10 +2764,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4">
         <v>27</v>
@@ -2666,10 +2784,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4">
         <v>27</v>
@@ -2686,10 +2804,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -2706,10 +2824,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4">
         <v>22</v>
@@ -2721,6 +2839,26 @@
         <v>24.623999999999999</v>
       </c>
       <c r="F19">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18.6616</v>
+      </c>
+      <c r="F20">
         <v>0.89200000000000002</v>
       </c>
     </row>
@@ -2732,18 +2870,73 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
